--- a/アカウント一覧_単体テスト.xlsx
+++ b/アカウント一覧_単体テスト.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/test/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3B4B8DCC-A317-4682-BCFC-B859F07CF802}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{764D9700-FB54-4154-9D50-A02A4F139763}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="3310" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="アカウント一覧画面" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="48">
   <si>
     <t>項目番号</t>
     <rPh sb="0" eb="2">
@@ -197,41 +197,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>新たに登録されたアカウントの情報が降順に並んでいるか。</t>
-    <rPh sb="0" eb="1">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>コウジュン</t>
-    </rPh>
-    <rPh sb="20" eb="21">
-      <t>ナラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新たなアカウント情報が降順で並ぶ</t>
-    <rPh sb="0" eb="1">
-      <t>アラ</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>コウジュン</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>ナラ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント一覧画面</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -307,13 +272,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウントをアイコン表示</t>
-    <rPh sb="10" eb="12">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「プロフィール画像」が登録されていない場合、灰色のアイコンの表示</t>
     <rPh sb="7" eb="9">
       <t>ガゾウ</t>
@@ -377,13 +335,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アカウントの表示</t>
-    <rPh sb="6" eb="8">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アカウント一覧画面のURL/account.phpの確認</t>
     <rPh sb="5" eb="7">
       <t>イチラン</t>
@@ -398,29 +349,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>管理者権限「一般」は「アカウント」を閲覧できないようになっているか</t>
-    <rPh sb="0" eb="3">
-      <t>カンリシャ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ケンゲン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>イッパン</t>
-    </rPh>
-    <rPh sb="18" eb="20">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>「アカウント」の閲覧ができない</t>
-    <rPh sb="8" eb="10">
-      <t>エツラン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>「アカウント一覧」の表示</t>
     <rPh sb="6" eb="8">
       <t>イチラン</t>
@@ -434,6 +362,110 @@
     <t>「アカウント一覧」</t>
     <rPh sb="6" eb="8">
       <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>〇</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>$_SESSION['user']が存在しない場合、login.phpへリダイレクトされるか</t>
+    <rPh sb="18" eb="20">
+      <t>ソンザイ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>バアイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ有効のアカウントだけ取得されているか</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アカウント権限「一般」の場合、「アクセス権限がありません。」がセットされ、index.phpにリダイレクトされるか</t>
+    <rPh sb="5" eb="7">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>イッパン</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>index.phpに「アクセス権限がありません。」</t>
+    <rPh sb="15" eb="17">
+      <t>ケンゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>login.phpにリダイレクト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>削除フラグ有効のアカウントだけ表示</t>
+    <rPh sb="0" eb="2">
+      <t>サクジョ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ユウコウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.ログインしない状態で、account.phpをURLに直打ちする</t>
+    <rPh sb="9" eb="11">
+      <t>ジョウタイ</t>
+    </rPh>
+    <rPh sb="29" eb="31">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.アクセス権限「一般」でログイン</t>
+    <rPh sb="6" eb="8">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イッパン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.account.phpのURLを直打ち</t>
+    <rPh sb="18" eb="20">
+      <t>チョクウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>異常系</t>
+    <rPh sb="0" eb="2">
+      <t>イジョウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ケイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -502,7 +534,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -521,6 +553,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -816,7 +851,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I21" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{4B85BB95-A177-4323-9374-E62AECA09AA0}" name="テーブル2" displayName="テーブル2" ref="A7:I19" totalsRowShown="0">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{FE3B6433-B2D2-49AE-8398-E424440CC4D9}" name="項目番号" dataDxfId="19"/>
     <tableColumn id="2" xr3:uid="{94A9CBD6-F56A-491E-8DAF-ACBE970046E3}" name="大項目" dataDxfId="18"/>
@@ -833,7 +868,7 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A26:I29" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{6BB457F1-4B3E-4D8B-868C-5A8485A7A4BA}" name="テーブル3" displayName="テーブル3" ref="A22:I25" headerRowCount="0" totalsRowShown="0" headerRowDxfId="10">
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{EE255D13-5044-4BC9-803B-B6202D1CDFB4}" name="項目番号" headerRowDxfId="9" dataDxfId="8"/>
     <tableColumn id="2" xr3:uid="{5394309E-B36D-49F6-8FFA-FA4533603CFC}" name="大項目" headerRowDxfId="7"/>
@@ -1166,10 +1201,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
-  <dimension ref="A1:I28"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="79" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1180,7 +1215,7 @@
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1220,12 +1255,12 @@
         <v>16</v>
       </c>
       <c r="C4" s="3">
-        <v>45809</v>
+        <v>45990</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1266,16 +1301,20 @@
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="E8" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="2"/>
+      <c r="G8" s="4">
+        <v>45991</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1292,20 +1331,28 @@
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="A10" s="2">
+        <v>2</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="G10" s="4">
+        <v>45991</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1322,20 +1369,28 @@
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
+      <c r="A12" s="2">
+        <v>3</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="G12" s="4">
+        <v>45991</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1353,23 +1408,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="G14" s="4">
+        <v>45991</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1386,20 +1445,28 @@
       <c r="I15" s="2"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+      <c r="A16" s="2">
+        <v>5</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="2"/>
-      <c r="H16" s="2"/>
+        <v>28</v>
+      </c>
+      <c r="G16" s="4">
+        <v>45991</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1417,23 +1484,27 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G18" s="2"/>
-      <c r="H18" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="G18" s="4">
+        <v>45991</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1451,23 +1522,27 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="2"/>
-      <c r="H20" s="2"/>
+        <v>20</v>
+      </c>
+      <c r="G20" s="4">
+        <v>45991</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I20" s="2"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1485,23 +1560,27 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="2">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2" t="s">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="G22" s="2"/>
-      <c r="H22" s="2"/>
+        <v>34</v>
+      </c>
+      <c r="G22" s="4">
+        <v>45991</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I22" s="2"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1518,28 +1597,32 @@
       <c r="I23" s="2"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="2">
-        <v>24</v>
+      <c r="A24" s="6">
+        <v>9</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2" t="s">
-        <v>21</v>
+        <v>39</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="G24" s="4">
+        <v>45991</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>37</v>
+      </c>
       <c r="I24" s="2"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="2"/>
+      <c r="A25" s="6"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1553,23 +1636,27 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="4">
+        <v>45991</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="G26" s="2"/>
-      <c r="H26" s="2"/>
       <c r="I26" s="2"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1577,21 +1664,49 @@
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
-      <c r="E27" s="2" t="s">
-        <v>18</v>
-      </c>
+      <c r="E27" s="2"/>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="D28" t="s">
-        <v>39</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="A28" s="2">
+        <v>11</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2" t="s">
         <v>40</v>
       </c>
+      <c r="E28" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="G28" s="4">
+        <v>45991</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I28" s="2"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
